--- a/АСД/1lab/results/graphics.xlsx
+++ b/АСД/1lab/results/graphics.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="bubble" sheetId="1" r:id="rId1"/>
-    <sheet name="insertion" sheetId="2" r:id="rId2"/>
+    <sheet name="insertion" sheetId="2" r:id="rId1"/>
+    <sheet name="bubble" sheetId="1" r:id="rId2"/>
     <sheet name="selection" sheetId="3" r:id="rId3"/>
     <sheet name="merge" sheetId="4" r:id="rId4"/>
     <sheet name="sort" sheetId="5" r:id="rId5"/>
@@ -118,11 +118,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bubble</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> sort</a:t>
+              <a:t>Insertion sort</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -168,7 +164,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -179,9 +175,61 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3625984251968504E-2"/>
+                  <c:y val="-1.4305555555555556E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>bubble!$A$2:$A$100</c:f>
+              <c:f>insertion!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -487,306 +535,306 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>bubble!$B$2:$B$100</c:f>
+              <c:f>insertion!$B$2:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>248</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>438</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>483</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>587</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>721</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>913</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1028</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1192</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1371</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1587</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1766</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1955</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2212</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2401</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2638</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2921</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3178</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3523</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3802</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4087</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4692</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4994</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8870</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6824</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6050</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6281</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7912</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9985</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10874</c:v>
+                  <c:v>762</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9685</c:v>
+                  <c:v>804</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9759</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9225</c:v>
+                  <c:v>879</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9846</c:v>
+                  <c:v>947</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11835</c:v>
+                  <c:v>984</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13635</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12851</c:v>
+                  <c:v>1079</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13312</c:v>
+                  <c:v>1142</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15067</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13746</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13261</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13946</c:v>
+                  <c:v>1364</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14315</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14944</c:v>
+                  <c:v>1468</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15814</c:v>
+                  <c:v>1541</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18224</c:v>
+                  <c:v>1602</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>23795</c:v>
+                  <c:v>1655</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25238</c:v>
+                  <c:v>1717</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18645</c:v>
+                  <c:v>1798</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19342</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>34425</c:v>
+                  <c:v>1926</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22162</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21366</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22392</c:v>
+                  <c:v>2133</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>23812</c:v>
+                  <c:v>2214</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25871</c:v>
+                  <c:v>2303</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27453</c:v>
+                  <c:v>2341</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>28657</c:v>
+                  <c:v>2444</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>26969</c:v>
+                  <c:v>2527</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>29615</c:v>
+                  <c:v>2588</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32757</c:v>
+                  <c:v>2660</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>30213</c:v>
+                  <c:v>2755</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>29463</c:v>
+                  <c:v>2851</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>29725</c:v>
+                  <c:v>2916</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>30747</c:v>
+                  <c:v>3005</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>31245</c:v>
+                  <c:v>3094</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>32281</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>33434</c:v>
+                  <c:v>3270</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>35009</c:v>
+                  <c:v>3354</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>35280</c:v>
+                  <c:v>3432</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>35999</c:v>
+                  <c:v>3540</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>36906</c:v>
+                  <c:v>3623</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>37874</c:v>
+                  <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>39366</c:v>
+                  <c:v>3844</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>39897</c:v>
+                  <c:v>3921</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>50051</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42915</c:v>
+                  <c:v>4135</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42812</c:v>
+                  <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43819</c:v>
+                  <c:v>4309</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44881</c:v>
+                  <c:v>4431</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>46910</c:v>
+                  <c:v>4530</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>62656</c:v>
+                  <c:v>4624</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>65646</c:v>
+                  <c:v>4725</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>55310</c:v>
+                  <c:v>4874</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>50841</c:v>
+                  <c:v>4969</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>52196</c:v>
+                  <c:v>5067</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>52661</c:v>
+                  <c:v>5195</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>52589</c:v>
+                  <c:v>5307</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>53075</c:v>
+                  <c:v>5418</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>54416</c:v>
+                  <c:v>5533</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>55548</c:v>
+                  <c:v>5687</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>56754</c:v>
+                  <c:v>5814</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>57872</c:v>
+                  <c:v>5906</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>59102</c:v>
+                  <c:v>6018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,7 +842,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CAF3-4B5E-B2AF-233504CF60C7}"/>
+              <c16:uniqueId val="{00000000-3E9E-4958-B16C-973D3D12FC98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -807,16 +855,86 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="495346568"/>
-        <c:axId val="495344928"/>
+        <c:axId val="386721304"/>
+        <c:axId val="386720976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="495346568"/>
+        <c:axId val="386721304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кількість елементів</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -826,8 +944,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -854,15 +972,16 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495344928"/>
+        <c:crossAx val="386720976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:tickMarkSkip val="200"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495344928"/>
+        <c:axId val="386720976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,14 +1001,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -913,7 +1095,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495346568"/>
+        <c:crossAx val="386721304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -997,7 +1179,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Insertion sort</a:t>
+              <a:t>Bubble</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sort</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1036,14 +1222,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1052,23 +1238,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:xVal>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1174090113735783"/>
+                  <c:y val="-9.5064887722368055E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:numRef>
-              <c:f>insertion!$A$2:$A$100</c:f>
+              <c:f>bubble!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1371,317 +1597,317 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>insertion!$B$2:$B$100</c:f>
+              <c:f>bubble!$B$2:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91</c:v>
+                  <c:v>913</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>104</c:v>
+                  <c:v>1028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>139</c:v>
+                  <c:v>1371</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161</c:v>
+                  <c:v>1587</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>180</c:v>
+                  <c:v>1766</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>201</c:v>
+                  <c:v>1955</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>225</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>250</c:v>
+                  <c:v>2401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>299</c:v>
+                  <c:v>2921</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>324</c:v>
+                  <c:v>3178</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>362</c:v>
+                  <c:v>3523</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>388</c:v>
+                  <c:v>3802</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>412</c:v>
+                  <c:v>4087</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>453</c:v>
+                  <c:v>4692</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>489</c:v>
+                  <c:v>4994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>514</c:v>
+                  <c:v>8870</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>549</c:v>
+                  <c:v>6824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>589</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>627</c:v>
+                  <c:v>6281</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>676</c:v>
+                  <c:v>7912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>718</c:v>
+                  <c:v>9985</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>762</c:v>
+                  <c:v>10874</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>804</c:v>
+                  <c:v>9685</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>839</c:v>
+                  <c:v>9759</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>879</c:v>
+                  <c:v>9225</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>947</c:v>
+                  <c:v>9846</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>984</c:v>
+                  <c:v>11835</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1037</c:v>
+                  <c:v>13635</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1079</c:v>
+                  <c:v>12851</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1142</c:v>
+                  <c:v>13312</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1202</c:v>
+                  <c:v>15067</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1246</c:v>
+                  <c:v>13746</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1299</c:v>
+                  <c:v>13261</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1364</c:v>
+                  <c:v>13946</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1424</c:v>
+                  <c:v>14315</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1468</c:v>
+                  <c:v>14944</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1541</c:v>
+                  <c:v>15814</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1602</c:v>
+                  <c:v>18224</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1655</c:v>
+                  <c:v>23795</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1717</c:v>
+                  <c:v>25238</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1798</c:v>
+                  <c:v>18645</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1856</c:v>
+                  <c:v>19342</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1926</c:v>
+                  <c:v>34425</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2007</c:v>
+                  <c:v>22162</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2077</c:v>
+                  <c:v>21366</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2133</c:v>
+                  <c:v>22392</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2214</c:v>
+                  <c:v>23812</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2303</c:v>
+                  <c:v>25871</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2341</c:v>
+                  <c:v>27453</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2444</c:v>
+                  <c:v>28657</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2527</c:v>
+                  <c:v>26969</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2588</c:v>
+                  <c:v>29615</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2660</c:v>
+                  <c:v>32757</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2755</c:v>
+                  <c:v>30213</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2851</c:v>
+                  <c:v>29463</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2916</c:v>
+                  <c:v>29725</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3005</c:v>
+                  <c:v>30747</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3094</c:v>
+                  <c:v>31245</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3176</c:v>
+                  <c:v>32281</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3270</c:v>
+                  <c:v>33434</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3354</c:v>
+                  <c:v>35009</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3432</c:v>
+                  <c:v>35280</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3540</c:v>
+                  <c:v>35999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3623</c:v>
+                  <c:v>36906</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3745</c:v>
+                  <c:v>37874</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3844</c:v>
+                  <c:v>39366</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3921</c:v>
+                  <c:v>39897</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4003</c:v>
+                  <c:v>50051</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4135</c:v>
+                  <c:v>42915</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4201</c:v>
+                  <c:v>42812</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4309</c:v>
+                  <c:v>43819</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4431</c:v>
+                  <c:v>44881</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4530</c:v>
+                  <c:v>46910</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4624</c:v>
+                  <c:v>62656</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4725</c:v>
+                  <c:v>65646</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4874</c:v>
+                  <c:v>55310</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4969</c:v>
+                  <c:v>50841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5067</c:v>
+                  <c:v>52196</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5195</c:v>
+                  <c:v>52661</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5307</c:v>
+                  <c:v>52589</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5418</c:v>
+                  <c:v>53075</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5533</c:v>
+                  <c:v>54416</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5687</c:v>
+                  <c:v>55548</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5814</c:v>
+                  <c:v>56754</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5906</c:v>
+                  <c:v>57872</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6018</c:v>
+                  <c:v>59102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E9E-4958-B16C-973D3D12FC98}"/>
+              <c16:uniqueId val="{00000000-CAF3-4B5E-B2AF-233504CF60C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1693,30 +1919,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386721304"/>
-        <c:axId val="386720976"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="386721304"/>
+        <c:smooth val="0"/>
+        <c:axId val="495346568"/>
+        <c:axId val="495344928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="495346568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кількість даних</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1726,8 +1995,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1754,12 +2023,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386720976"/>
+        <c:crossAx val="495344928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="386720976"/>
+        <c:axId val="495344928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,20 +2051,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1816,9 +2139,9 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386721304"/>
+        <c:crossAx val="495346568"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1939,8 +2262,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1955,21 +2278,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:xVal>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5958442694663167E-2"/>
+                  <c:y val="-0.1109685768445611"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:numRef>
               <c:f>selection!$A$2:$A$100</c:f>
               <c:numCache>
@@ -2274,8 +2637,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>selection!$B$2:$B$100</c:f>
               <c:numCache>
@@ -2580,7 +2943,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2596,10 +2959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="505684392"/>
         <c:axId val="505684720"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="505684392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2620,6 +2984,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кількість даних</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2659,8 +3079,12 @@
         </c:txPr>
         <c:crossAx val="505684720"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="200"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="505684720"/>
         <c:scaling>
@@ -2682,6 +3106,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2721,7 +3202,7 @@
         </c:txPr>
         <c:crossAx val="505684392"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2860,6 +3341,58 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5361767279090111E-2"/>
+                  <c:y val="-0.15649934383202099"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>merge!$A$2:$A$100</c:f>
@@ -3498,6 +4031,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кількість даних</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3563,6 +4152,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3739,6 +4385,57 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5213035870516185E-2"/>
+                  <c:y val="-6.0170603674540704E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>sort!$A$2:$A$100</c:f>
@@ -4377,6 +5074,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кількість даних</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4442,6 +5195,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4723,7 +5533,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4750,8 +5560,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4831,11 +5641,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4846,11 +5651,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4862,7 +5662,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4882,9 +5682,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4897,10 +5694,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4940,22 +5737,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5060,8 +5858,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5193,19 +5991,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5219,6 +6018,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5239,7 +6049,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5266,8 +6076,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5347,6 +6157,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5754,8 +7080,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5782,8 +7108,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5863,6 +7189,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5873,6 +7204,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5884,7 +7220,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5904,6 +7240,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5916,10 +7255,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5959,23 +7298,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6080,8 +7418,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6213,20 +7551,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6240,17 +7577,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6270,7 +7596,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6786,536 +8112,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7341,16 +8151,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7743,7 +8553,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7761,7 +8571,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7769,7 +8579,7 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7777,7 +8587,7 @@
         <v>3000</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7785,7 +8595,7 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7793,7 +8603,7 @@
         <v>5000</v>
       </c>
       <c r="B6">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7801,7 +8611,7 @@
         <v>6000</v>
       </c>
       <c r="B7">
-        <v>248</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7809,7 +8619,7 @@
         <v>7000</v>
       </c>
       <c r="B8">
-        <v>316</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7817,7 +8627,7 @@
         <v>8000</v>
       </c>
       <c r="B9">
-        <v>438</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7825,7 +8635,7 @@
         <v>9000</v>
       </c>
       <c r="B10">
-        <v>483</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7833,7 +8643,7 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>587</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7841,7 +8651,7 @@
         <v>11000</v>
       </c>
       <c r="B12">
-        <v>721</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7849,7 +8659,7 @@
         <v>12000</v>
       </c>
       <c r="B13">
-        <v>913</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7857,7 +8667,7 @@
         <v>13000</v>
       </c>
       <c r="B14">
-        <v>1028</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7865,7 +8675,7 @@
         <v>14000</v>
       </c>
       <c r="B15">
-        <v>1192</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7873,7 +8683,7 @@
         <v>15000</v>
       </c>
       <c r="B16">
-        <v>1371</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7881,7 +8691,7 @@
         <v>16000</v>
       </c>
       <c r="B17">
-        <v>1587</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7889,7 +8699,7 @@
         <v>17000</v>
       </c>
       <c r="B18">
-        <v>1766</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7897,7 +8707,7 @@
         <v>18000</v>
       </c>
       <c r="B19">
-        <v>1955</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7905,7 +8715,7 @@
         <v>19000</v>
       </c>
       <c r="B20">
-        <v>2212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7913,7 +8723,7 @@
         <v>20000</v>
       </c>
       <c r="B21">
-        <v>2401</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7921,7 +8731,7 @@
         <v>21000</v>
       </c>
       <c r="B22">
-        <v>2638</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7929,7 +8739,7 @@
         <v>22000</v>
       </c>
       <c r="B23">
-        <v>2921</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7937,7 +8747,7 @@
         <v>23000</v>
       </c>
       <c r="B24">
-        <v>3178</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7945,7 +8755,7 @@
         <v>24000</v>
       </c>
       <c r="B25">
-        <v>3523</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,7 +8763,7 @@
         <v>25000</v>
       </c>
       <c r="B26">
-        <v>3802</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +8771,7 @@
         <v>26000</v>
       </c>
       <c r="B27">
-        <v>4087</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7969,7 +8779,7 @@
         <v>27000</v>
       </c>
       <c r="B28">
-        <v>4692</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7977,7 +8787,7 @@
         <v>28000</v>
       </c>
       <c r="B29">
-        <v>4994</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7985,7 +8795,7 @@
         <v>29000</v>
       </c>
       <c r="B30">
-        <v>8870</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7993,7 +8803,7 @@
         <v>30000</v>
       </c>
       <c r="B31">
-        <v>6824</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8001,7 +8811,7 @@
         <v>31000</v>
       </c>
       <c r="B32">
-        <v>6050</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8009,7 +8819,7 @@
         <v>32000</v>
       </c>
       <c r="B33">
-        <v>6281</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8017,7 +8827,7 @@
         <v>33000</v>
       </c>
       <c r="B34">
-        <v>7912</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8025,7 +8835,7 @@
         <v>34000</v>
       </c>
       <c r="B35">
-        <v>9985</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8033,7 +8843,7 @@
         <v>35000</v>
       </c>
       <c r="B36">
-        <v>10874</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8041,7 +8851,7 @@
         <v>36000</v>
       </c>
       <c r="B37">
-        <v>9685</v>
+        <v>804</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8049,7 +8859,7 @@
         <v>37000</v>
       </c>
       <c r="B38">
-        <v>9759</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8057,7 +8867,7 @@
         <v>38000</v>
       </c>
       <c r="B39">
-        <v>9225</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8065,7 +8875,7 @@
         <v>39000</v>
       </c>
       <c r="B40">
-        <v>9846</v>
+        <v>947</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8073,7 +8883,7 @@
         <v>40000</v>
       </c>
       <c r="B41">
-        <v>11835</v>
+        <v>984</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8081,7 +8891,7 @@
         <v>41000</v>
       </c>
       <c r="B42">
-        <v>13635</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8089,7 +8899,7 @@
         <v>42000</v>
       </c>
       <c r="B43">
-        <v>12851</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8097,7 +8907,7 @@
         <v>43000</v>
       </c>
       <c r="B44">
-        <v>13312</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,7 +8915,7 @@
         <v>44000</v>
       </c>
       <c r="B45">
-        <v>15067</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8113,7 +8923,7 @@
         <v>45000</v>
       </c>
       <c r="B46">
-        <v>13746</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8121,7 +8931,7 @@
         <v>46000</v>
       </c>
       <c r="B47">
-        <v>13261</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8129,7 +8939,7 @@
         <v>47000</v>
       </c>
       <c r="B48">
-        <v>13946</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8137,7 +8947,7 @@
         <v>48000</v>
       </c>
       <c r="B49">
-        <v>14315</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8145,7 +8955,7 @@
         <v>49000</v>
       </c>
       <c r="B50">
-        <v>14944</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8153,7 +8963,7 @@
         <v>50000</v>
       </c>
       <c r="B51">
-        <v>15814</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8161,7 +8971,7 @@
         <v>51000</v>
       </c>
       <c r="B52">
-        <v>18224</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8169,7 +8979,7 @@
         <v>52000</v>
       </c>
       <c r="B53">
-        <v>23795</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8177,7 +8987,7 @@
         <v>53000</v>
       </c>
       <c r="B54">
-        <v>25238</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8185,7 +8995,7 @@
         <v>54000</v>
       </c>
       <c r="B55">
-        <v>18645</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8193,7 +9003,7 @@
         <v>55000</v>
       </c>
       <c r="B56">
-        <v>19342</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8201,7 +9011,7 @@
         <v>56000</v>
       </c>
       <c r="B57">
-        <v>34425</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8209,7 +9019,7 @@
         <v>57000</v>
       </c>
       <c r="B58">
-        <v>22162</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8217,7 +9027,7 @@
         <v>58000</v>
       </c>
       <c r="B59">
-        <v>21366</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8225,7 +9035,7 @@
         <v>59000</v>
       </c>
       <c r="B60">
-        <v>22392</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8233,7 +9043,7 @@
         <v>60000</v>
       </c>
       <c r="B61">
-        <v>23812</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8241,7 +9051,7 @@
         <v>61000</v>
       </c>
       <c r="B62">
-        <v>25871</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8249,7 +9059,7 @@
         <v>62000</v>
       </c>
       <c r="B63">
-        <v>27453</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8257,7 +9067,7 @@
         <v>63000</v>
       </c>
       <c r="B64">
-        <v>28657</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8265,7 +9075,7 @@
         <v>64000</v>
       </c>
       <c r="B65">
-        <v>26969</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8273,7 +9083,7 @@
         <v>65000</v>
       </c>
       <c r="B66">
-        <v>29615</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8281,7 +9091,7 @@
         <v>66000</v>
       </c>
       <c r="B67">
-        <v>32757</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8289,7 +9099,7 @@
         <v>67000</v>
       </c>
       <c r="B68">
-        <v>30213</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8297,7 +9107,7 @@
         <v>68000</v>
       </c>
       <c r="B69">
-        <v>29463</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8305,7 +9115,7 @@
         <v>69000</v>
       </c>
       <c r="B70">
-        <v>29725</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8313,7 +9123,7 @@
         <v>70000</v>
       </c>
       <c r="B71">
-        <v>30747</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -8321,7 +9131,7 @@
         <v>71000</v>
       </c>
       <c r="B72">
-        <v>31245</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8329,7 +9139,7 @@
         <v>72000</v>
       </c>
       <c r="B73">
-        <v>32281</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8337,7 +9147,7 @@
         <v>73000</v>
       </c>
       <c r="B74">
-        <v>33434</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -8345,7 +9155,7 @@
         <v>74000</v>
       </c>
       <c r="B75">
-        <v>35009</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -8353,7 +9163,7 @@
         <v>75000</v>
       </c>
       <c r="B76">
-        <v>35280</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -8361,7 +9171,7 @@
         <v>76000</v>
       </c>
       <c r="B77">
-        <v>35999</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -8369,7 +9179,7 @@
         <v>77000</v>
       </c>
       <c r="B78">
-        <v>36906</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -8377,7 +9187,7 @@
         <v>78000</v>
       </c>
       <c r="B79">
-        <v>37874</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -8385,7 +9195,7 @@
         <v>79000</v>
       </c>
       <c r="B80">
-        <v>39366</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8393,7 +9203,7 @@
         <v>80000</v>
       </c>
       <c r="B81">
-        <v>39897</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8401,7 +9211,7 @@
         <v>81000</v>
       </c>
       <c r="B82">
-        <v>50051</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8409,7 +9219,7 @@
         <v>82000</v>
       </c>
       <c r="B83">
-        <v>42915</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8417,7 +9227,7 @@
         <v>83000</v>
       </c>
       <c r="B84">
-        <v>42812</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8425,7 +9235,7 @@
         <v>84000</v>
       </c>
       <c r="B85">
-        <v>43819</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8433,7 +9243,7 @@
         <v>85000</v>
       </c>
       <c r="B86">
-        <v>44881</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8441,7 +9251,7 @@
         <v>86000</v>
       </c>
       <c r="B87">
-        <v>46910</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8449,7 +9259,7 @@
         <v>87000</v>
       </c>
       <c r="B88">
-        <v>62656</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8457,7 +9267,7 @@
         <v>88000</v>
       </c>
       <c r="B89">
-        <v>65646</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8465,7 +9275,7 @@
         <v>89000</v>
       </c>
       <c r="B90">
-        <v>55310</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -8473,7 +9283,7 @@
         <v>90000</v>
       </c>
       <c r="B91">
-        <v>50841</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8481,7 +9291,7 @@
         <v>91000</v>
       </c>
       <c r="B92">
-        <v>52196</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8489,7 +9299,7 @@
         <v>92000</v>
       </c>
       <c r="B93">
-        <v>52661</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8497,7 +9307,7 @@
         <v>93000</v>
       </c>
       <c r="B94">
-        <v>52589</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8505,7 +9315,7 @@
         <v>94000</v>
       </c>
       <c r="B95">
-        <v>53075</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -8513,7 +9323,7 @@
         <v>95000</v>
       </c>
       <c r="B96">
-        <v>54416</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8521,7 +9331,7 @@
         <v>96000</v>
       </c>
       <c r="B97">
-        <v>55548</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8529,7 +9339,7 @@
         <v>97000</v>
       </c>
       <c r="B98">
-        <v>56754</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8537,7 +9347,7 @@
         <v>98000</v>
       </c>
       <c r="B99">
-        <v>57872</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8545,7 +9355,7 @@
         <v>99000</v>
       </c>
       <c r="B100">
-        <v>59102</v>
+        <v>6018</v>
       </c>
     </row>
   </sheetData>
@@ -8559,7 +9369,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8577,7 +9387,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8585,7 +9395,7 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8593,7 +9403,7 @@
         <v>3000</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8601,7 +9411,7 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8609,7 +9419,7 @@
         <v>5000</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8617,7 +9427,7 @@
         <v>6000</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8625,7 +9435,7 @@
         <v>7000</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8633,7 +9443,7 @@
         <v>8000</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8641,7 +9451,7 @@
         <v>9000</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8649,7 +9459,7 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8657,7 +9467,7 @@
         <v>11000</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8665,7 +9475,7 @@
         <v>12000</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8673,7 +9483,7 @@
         <v>13000</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8681,7 +9491,7 @@
         <v>14000</v>
       </c>
       <c r="B15">
-        <v>128</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8689,7 +9499,7 @@
         <v>15000</v>
       </c>
       <c r="B16">
-        <v>139</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8697,7 +9507,7 @@
         <v>16000</v>
       </c>
       <c r="B17">
-        <v>161</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8705,7 +9515,7 @@
         <v>17000</v>
       </c>
       <c r="B18">
-        <v>180</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8713,7 +9523,7 @@
         <v>18000</v>
       </c>
       <c r="B19">
-        <v>201</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8721,7 +9531,7 @@
         <v>19000</v>
       </c>
       <c r="B20">
-        <v>225</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8729,7 +9539,7 @@
         <v>20000</v>
       </c>
       <c r="B21">
-        <v>250</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8737,7 +9547,7 @@
         <v>21000</v>
       </c>
       <c r="B22">
-        <v>273</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8745,7 +9555,7 @@
         <v>22000</v>
       </c>
       <c r="B23">
-        <v>299</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8753,7 +9563,7 @@
         <v>23000</v>
       </c>
       <c r="B24">
-        <v>324</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,7 +9571,7 @@
         <v>24000</v>
       </c>
       <c r="B25">
-        <v>362</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +9579,7 @@
         <v>25000</v>
       </c>
       <c r="B26">
-        <v>388</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8777,7 +9587,7 @@
         <v>26000</v>
       </c>
       <c r="B27">
-        <v>412</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8785,7 +9595,7 @@
         <v>27000</v>
       </c>
       <c r="B28">
-        <v>453</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8793,7 +9603,7 @@
         <v>28000</v>
       </c>
       <c r="B29">
-        <v>489</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8801,7 +9611,7 @@
         <v>29000</v>
       </c>
       <c r="B30">
-        <v>514</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8809,7 +9619,7 @@
         <v>30000</v>
       </c>
       <c r="B31">
-        <v>549</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8817,7 +9627,7 @@
         <v>31000</v>
       </c>
       <c r="B32">
-        <v>589</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8825,7 +9635,7 @@
         <v>32000</v>
       </c>
       <c r="B33">
-        <v>627</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +9643,7 @@
         <v>33000</v>
       </c>
       <c r="B34">
-        <v>676</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +9651,7 @@
         <v>34000</v>
       </c>
       <c r="B35">
-        <v>718</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8849,7 +9659,7 @@
         <v>35000</v>
       </c>
       <c r="B36">
-        <v>762</v>
+        <v>10874</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8857,7 +9667,7 @@
         <v>36000</v>
       </c>
       <c r="B37">
-        <v>804</v>
+        <v>9685</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8865,7 +9675,7 @@
         <v>37000</v>
       </c>
       <c r="B38">
-        <v>839</v>
+        <v>9759</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8873,7 +9683,7 @@
         <v>38000</v>
       </c>
       <c r="B39">
-        <v>879</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8881,7 +9691,7 @@
         <v>39000</v>
       </c>
       <c r="B40">
-        <v>947</v>
+        <v>9846</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8889,7 +9699,7 @@
         <v>40000</v>
       </c>
       <c r="B41">
-        <v>984</v>
+        <v>11835</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8897,7 +9707,7 @@
         <v>41000</v>
       </c>
       <c r="B42">
-        <v>1037</v>
+        <v>13635</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8905,7 +9715,7 @@
         <v>42000</v>
       </c>
       <c r="B43">
-        <v>1079</v>
+        <v>12851</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +9723,7 @@
         <v>43000</v>
       </c>
       <c r="B44">
-        <v>1142</v>
+        <v>13312</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8921,7 +9731,7 @@
         <v>44000</v>
       </c>
       <c r="B45">
-        <v>1202</v>
+        <v>15067</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8929,7 +9739,7 @@
         <v>45000</v>
       </c>
       <c r="B46">
-        <v>1246</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8937,7 +9747,7 @@
         <v>46000</v>
       </c>
       <c r="B47">
-        <v>1299</v>
+        <v>13261</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8945,7 +9755,7 @@
         <v>47000</v>
       </c>
       <c r="B48">
-        <v>1364</v>
+        <v>13946</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8953,7 +9763,7 @@
         <v>48000</v>
       </c>
       <c r="B49">
-        <v>1424</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8961,7 +9771,7 @@
         <v>49000</v>
       </c>
       <c r="B50">
-        <v>1468</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8969,7 +9779,7 @@
         <v>50000</v>
       </c>
       <c r="B51">
-        <v>1541</v>
+        <v>15814</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,7 +9787,7 @@
         <v>51000</v>
       </c>
       <c r="B52">
-        <v>1602</v>
+        <v>18224</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +9795,7 @@
         <v>52000</v>
       </c>
       <c r="B53">
-        <v>1655</v>
+        <v>23795</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8993,7 +9803,7 @@
         <v>53000</v>
       </c>
       <c r="B54">
-        <v>1717</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -9001,7 +9811,7 @@
         <v>54000</v>
       </c>
       <c r="B55">
-        <v>1798</v>
+        <v>18645</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -9009,7 +9819,7 @@
         <v>55000</v>
       </c>
       <c r="B56">
-        <v>1856</v>
+        <v>19342</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -9017,7 +9827,7 @@
         <v>56000</v>
       </c>
       <c r="B57">
-        <v>1926</v>
+        <v>34425</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -9025,7 +9835,7 @@
         <v>57000</v>
       </c>
       <c r="B58">
-        <v>2007</v>
+        <v>22162</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -9033,7 +9843,7 @@
         <v>58000</v>
       </c>
       <c r="B59">
-        <v>2077</v>
+        <v>21366</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -9041,7 +9851,7 @@
         <v>59000</v>
       </c>
       <c r="B60">
-        <v>2133</v>
+        <v>22392</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -9049,7 +9859,7 @@
         <v>60000</v>
       </c>
       <c r="B61">
-        <v>2214</v>
+        <v>23812</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -9057,7 +9867,7 @@
         <v>61000</v>
       </c>
       <c r="B62">
-        <v>2303</v>
+        <v>25871</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -9065,7 +9875,7 @@
         <v>62000</v>
       </c>
       <c r="B63">
-        <v>2341</v>
+        <v>27453</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -9073,7 +9883,7 @@
         <v>63000</v>
       </c>
       <c r="B64">
-        <v>2444</v>
+        <v>28657</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -9081,7 +9891,7 @@
         <v>64000</v>
       </c>
       <c r="B65">
-        <v>2527</v>
+        <v>26969</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -9089,7 +9899,7 @@
         <v>65000</v>
       </c>
       <c r="B66">
-        <v>2588</v>
+        <v>29615</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -9097,7 +9907,7 @@
         <v>66000</v>
       </c>
       <c r="B67">
-        <v>2660</v>
+        <v>32757</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -9105,7 +9915,7 @@
         <v>67000</v>
       </c>
       <c r="B68">
-        <v>2755</v>
+        <v>30213</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -9113,7 +9923,7 @@
         <v>68000</v>
       </c>
       <c r="B69">
-        <v>2851</v>
+        <v>29463</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -9121,7 +9931,7 @@
         <v>69000</v>
       </c>
       <c r="B70">
-        <v>2916</v>
+        <v>29725</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -9129,7 +9939,7 @@
         <v>70000</v>
       </c>
       <c r="B71">
-        <v>3005</v>
+        <v>30747</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -9137,7 +9947,7 @@
         <v>71000</v>
       </c>
       <c r="B72">
-        <v>3094</v>
+        <v>31245</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -9145,7 +9955,7 @@
         <v>72000</v>
       </c>
       <c r="B73">
-        <v>3176</v>
+        <v>32281</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -9153,7 +9963,7 @@
         <v>73000</v>
       </c>
       <c r="B74">
-        <v>3270</v>
+        <v>33434</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -9161,7 +9971,7 @@
         <v>74000</v>
       </c>
       <c r="B75">
-        <v>3354</v>
+        <v>35009</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -9169,7 +9979,7 @@
         <v>75000</v>
       </c>
       <c r="B76">
-        <v>3432</v>
+        <v>35280</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -9177,7 +9987,7 @@
         <v>76000</v>
       </c>
       <c r="B77">
-        <v>3540</v>
+        <v>35999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -9185,7 +9995,7 @@
         <v>77000</v>
       </c>
       <c r="B78">
-        <v>3623</v>
+        <v>36906</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -9193,7 +10003,7 @@
         <v>78000</v>
       </c>
       <c r="B79">
-        <v>3745</v>
+        <v>37874</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -9201,7 +10011,7 @@
         <v>79000</v>
       </c>
       <c r="B80">
-        <v>3844</v>
+        <v>39366</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -9209,7 +10019,7 @@
         <v>80000</v>
       </c>
       <c r="B81">
-        <v>3921</v>
+        <v>39897</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -9217,7 +10027,7 @@
         <v>81000</v>
       </c>
       <c r="B82">
-        <v>4003</v>
+        <v>50051</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -9225,7 +10035,7 @@
         <v>82000</v>
       </c>
       <c r="B83">
-        <v>4135</v>
+        <v>42915</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -9233,7 +10043,7 @@
         <v>83000</v>
       </c>
       <c r="B84">
-        <v>4201</v>
+        <v>42812</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -9241,7 +10051,7 @@
         <v>84000</v>
       </c>
       <c r="B85">
-        <v>4309</v>
+        <v>43819</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -9249,7 +10059,7 @@
         <v>85000</v>
       </c>
       <c r="B86">
-        <v>4431</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -9257,7 +10067,7 @@
         <v>86000</v>
       </c>
       <c r="B87">
-        <v>4530</v>
+        <v>46910</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -9265,7 +10075,7 @@
         <v>87000</v>
       </c>
       <c r="B88">
-        <v>4624</v>
+        <v>62656</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -9273,7 +10083,7 @@
         <v>88000</v>
       </c>
       <c r="B89">
-        <v>4725</v>
+        <v>65646</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -9281,7 +10091,7 @@
         <v>89000</v>
       </c>
       <c r="B90">
-        <v>4874</v>
+        <v>55310</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -9289,7 +10099,7 @@
         <v>90000</v>
       </c>
       <c r="B91">
-        <v>4969</v>
+        <v>50841</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -9297,7 +10107,7 @@
         <v>91000</v>
       </c>
       <c r="B92">
-        <v>5067</v>
+        <v>52196</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -9305,7 +10115,7 @@
         <v>92000</v>
       </c>
       <c r="B93">
-        <v>5195</v>
+        <v>52661</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -9313,7 +10123,7 @@
         <v>93000</v>
       </c>
       <c r="B94">
-        <v>5307</v>
+        <v>52589</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -9321,7 +10131,7 @@
         <v>94000</v>
       </c>
       <c r="B95">
-        <v>5418</v>
+        <v>53075</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -9329,7 +10139,7 @@
         <v>95000</v>
       </c>
       <c r="B96">
-        <v>5533</v>
+        <v>54416</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -9337,7 +10147,7 @@
         <v>96000</v>
       </c>
       <c r="B97">
-        <v>5687</v>
+        <v>55548</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -9345,7 +10155,7 @@
         <v>97000</v>
       </c>
       <c r="B98">
-        <v>5814</v>
+        <v>56754</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -9353,7 +10163,7 @@
         <v>98000</v>
       </c>
       <c r="B99">
-        <v>5906</v>
+        <v>57872</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -9361,7 +10171,7 @@
         <v>99000</v>
       </c>
       <c r="B100">
-        <v>6018</v>
+        <v>59102</v>
       </c>
     </row>
   </sheetData>
@@ -9375,7 +10185,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10190,8 +11000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11006,8 +11816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
